--- a/Praktikum/233 - Fourieroptik/Tabellen/Auswertungstab.xlsx
+++ b/Praktikum/233 - Fourieroptik/Tabellen/Auswertungstab.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12795"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12795" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="ES_quant" sheetId="1" r:id="rId1"/>
+    <sheet name="DS_bb" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="97">
   <si>
     <t>Umrechnungsfaktor u</t>
   </si>
@@ -257,6 +258,93 @@
   </si>
   <si>
     <t>0,0015±0,0005</t>
+  </si>
+  <si>
+    <t>mittlere Spaltbreit [pxl]</t>
+  </si>
+  <si>
+    <t>145±6</t>
+  </si>
+  <si>
+    <t>Spaltabstand [pxl]</t>
+  </si>
+  <si>
+    <t>330±10</t>
+  </si>
+  <si>
+    <t>Verhältnis SPb/Spa</t>
+  </si>
+  <si>
+    <t>2,29±0,11</t>
+  </si>
+  <si>
+    <t>Vergleich der Intensitäten</t>
+  </si>
+  <si>
+    <t>Maximus Ordnung</t>
+  </si>
+  <si>
+    <t>0,5386±0,0016</t>
+  </si>
+  <si>
+    <t>0,0471±0,0020</t>
+  </si>
+  <si>
+    <t>0,0341±0,0020</t>
+  </si>
+  <si>
+    <t>0,0284±0,0027</t>
+  </si>
+  <si>
+    <t>0,5480±0,0014</t>
+  </si>
+  <si>
+    <t>0,0557±0,0021</t>
+  </si>
+  <si>
+    <t>0,0314±0,0018</t>
+  </si>
+  <si>
+    <t>0,0245±0,0024</t>
+  </si>
+  <si>
+    <t>Theorie Kurve</t>
+  </si>
+  <si>
+    <t>Theorie Werte</t>
+  </si>
+  <si>
+    <t>Vergleich</t>
+  </si>
+  <si>
+    <t>Verhältnid der Intensitäten</t>
+  </si>
+  <si>
+    <t>0,0037±0,0016</t>
+  </si>
+  <si>
+    <t>0,0059±0,0020</t>
+  </si>
+  <si>
+    <t>0,0076±0,0020</t>
+  </si>
+  <si>
+    <t>0,0081±0,0027</t>
+  </si>
+  <si>
+    <t>0,0131±0,0014</t>
+  </si>
+  <si>
+    <t>0,0144±0,0021</t>
+  </si>
+  <si>
+    <t>0,0103±0,0018</t>
+  </si>
+  <si>
+    <t>0,0043±0,0024</t>
+  </si>
+  <si>
+    <t>Das dritte ding aus 2</t>
   </si>
 </sst>
 </file>
@@ -303,7 +391,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -692,11 +780,53 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -793,6 +923,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1109,7 +1256,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
@@ -1602,4 +1749,267 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:G27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F5" s="25"/>
+      <c r="G5" s="25" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F6" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="27"/>
+      <c r="G7" s="68" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="64">
+        <v>1</v>
+      </c>
+      <c r="D8" s="62" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="25"/>
+      <c r="C9" s="37">
+        <v>2</v>
+      </c>
+      <c r="D9" s="63" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="25"/>
+      <c r="C10" s="37">
+        <v>3</v>
+      </c>
+      <c r="D10" s="63" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="40"/>
+      <c r="C11" s="41">
+        <v>4</v>
+      </c>
+      <c r="D11" s="65" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="56" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="54">
+        <v>1</v>
+      </c>
+      <c r="D12" s="66" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="25"/>
+      <c r="C13" s="37">
+        <v>2</v>
+      </c>
+      <c r="D13" s="63" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="25"/>
+      <c r="C14" s="37">
+        <v>3</v>
+      </c>
+      <c r="D14" s="63" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="27"/>
+      <c r="C15" s="38">
+        <v>4</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="67" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="64">
+        <v>1</v>
+      </c>
+      <c r="D19" s="62" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="25"/>
+      <c r="C20" s="37">
+        <v>2</v>
+      </c>
+      <c r="D20" s="63" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="25"/>
+      <c r="C21" s="37">
+        <v>3</v>
+      </c>
+      <c r="D21" s="63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="40"/>
+      <c r="C22" s="41">
+        <v>4</v>
+      </c>
+      <c r="D22" s="65" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="56" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="54">
+        <v>1</v>
+      </c>
+      <c r="D23" s="66" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="25"/>
+      <c r="C24" s="37">
+        <v>2</v>
+      </c>
+      <c r="D24" s="63" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="25"/>
+      <c r="C25" s="37">
+        <v>3</v>
+      </c>
+      <c r="D25" s="63" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="27"/>
+      <c r="C26" s="38">
+        <v>4</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Praktikum/233 - Fourieroptik/Tabellen/Auswertungstab.xlsx
+++ b/Praktikum/233 - Fourieroptik/Tabellen/Auswertungstab.xlsx
@@ -14,6 +14,8 @@
   <sheets>
     <sheet name="ES_quant" sheetId="1" r:id="rId1"/>
     <sheet name="DS_bb" sheetId="2" r:id="rId2"/>
+    <sheet name="OB_fs" sheetId="3" r:id="rId3"/>
+    <sheet name="DS_fb" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="144">
   <si>
     <t>Umrechnungsfaktor u</t>
   </si>
@@ -308,18 +310,9 @@
     <t>0,0245±0,0024</t>
   </si>
   <si>
-    <t>Theorie Kurve</t>
-  </si>
-  <si>
-    <t>Theorie Werte</t>
-  </si>
-  <si>
     <t>Vergleich</t>
   </si>
   <si>
-    <t>Verhältnid der Intensitäten</t>
-  </si>
-  <si>
     <t>0,0037±0,0016</t>
   </si>
   <si>
@@ -345,6 +338,156 @@
   </si>
   <si>
     <t>Das dritte ding aus 2</t>
+  </si>
+  <si>
+    <t>Vergleich theoretischer und experimenteller Werte</t>
+  </si>
+  <si>
+    <t>ein Max</t>
+  </si>
+  <si>
+    <t>zwei Max</t>
+  </si>
+  <si>
+    <t>drei Max</t>
+  </si>
+  <si>
+    <t>kein Min</t>
+  </si>
+  <si>
+    <t>zwei Min</t>
+  </si>
+  <si>
+    <t>ein Min</t>
+  </si>
+  <si>
+    <t>70±7</t>
+  </si>
+  <si>
+    <t>theo l/r</t>
+  </si>
+  <si>
+    <t>exp l/r</t>
+  </si>
+  <si>
+    <t>59,1/59,1</t>
+  </si>
+  <si>
+    <t>48±7/45±6</t>
+  </si>
+  <si>
+    <t>48±8</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Vergleich Double slit 15 maxima</t>
+  </si>
+  <si>
+    <t>max_theo</t>
+  </si>
+  <si>
+    <t>min_theo</t>
+  </si>
+  <si>
+    <t>max_exp</t>
+  </si>
+  <si>
+    <t>7,8±0,6</t>
+  </si>
+  <si>
+    <t>9,8±1,1</t>
+  </si>
+  <si>
+    <t>10,2±1,0</t>
+  </si>
+  <si>
+    <t>8,2±0,6</t>
+  </si>
+  <si>
+    <t>10,5±1,2</t>
+  </si>
+  <si>
+    <t>9,0±1,4</t>
+  </si>
+  <si>
+    <t>9,6±1,2</t>
+  </si>
+  <si>
+    <t>9,5±1,0</t>
+  </si>
+  <si>
+    <t>8,9±1,3</t>
+  </si>
+  <si>
+    <t>10,3±1,1</t>
+  </si>
+  <si>
+    <t>8,5±0,7</t>
+  </si>
+  <si>
+    <t>10,2±0,7</t>
+  </si>
+  <si>
+    <t>8,9±0,7</t>
+  </si>
+  <si>
+    <t>11,1±1,2</t>
+  </si>
+  <si>
+    <t>min_exp</t>
+  </si>
+  <si>
+    <t>12,6±1,2</t>
+  </si>
+  <si>
+    <t>6,4±1,2</t>
+  </si>
+  <si>
+    <t>9,0±1,2</t>
+  </si>
+  <si>
+    <t>19,2±1,2</t>
+  </si>
+  <si>
+    <t>10,0±1,1</t>
+  </si>
+  <si>
+    <t>9,8±0,7</t>
+  </si>
+  <si>
+    <t>4,0±1,2</t>
+  </si>
+  <si>
+    <t>15,3±1,4</t>
+  </si>
+  <si>
+    <t>8,7±1,2</t>
+  </si>
+  <si>
+    <t>7,3±1,2</t>
+  </si>
+  <si>
+    <t>10,9±0,8</t>
+  </si>
+  <si>
+    <t>10,1±0,8</t>
+  </si>
+  <si>
+    <t>Minima</t>
+  </si>
+  <si>
+    <t>Minimums Ordnung</t>
+  </si>
+  <si>
+    <t>Theorie</t>
+  </si>
+  <si>
+    <t>Theorie / Experimentell Abweichung</t>
+  </si>
+  <si>
+    <t>Verhältnis der Intensitäten</t>
   </si>
 </sst>
 </file>
@@ -391,7 +534,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -822,11 +965,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -940,6 +1092,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1256,8 +1424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1520,7 +1688,7 @@
       <c r="F15" s="36"/>
       <c r="G15" s="34"/>
       <c r="H15" s="52" t="s">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="I15" s="53" t="s">
         <v>57</v>
@@ -1651,7 +1819,7 @@
     </row>
     <row r="22" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="4" t="s">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="C22" s="20" t="s">
         <v>16</v>
@@ -1756,7 +1924,7 @@
   <dimension ref="B1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1776,7 +1944,7 @@
         <v>69</v>
       </c>
       <c r="F2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1788,7 +1956,7 @@
       </c>
       <c r="F3" s="33"/>
       <c r="G3" s="33" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1802,13 +1970,13 @@
         <v>53</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F5" s="25"/>
       <c r="G5" s="25" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1816,12 +1984,12 @@
         <v>54</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="33" t="s">
-        <v>87</v>
+        <v>143</v>
       </c>
       <c r="C7" s="43" t="s">
         <v>75</v>
@@ -1831,7 +1999,7 @@
       </c>
       <c r="F7" s="27"/>
       <c r="G7" s="68" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
@@ -1912,7 +2080,7 @@
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>84</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1924,7 +2092,7 @@
         <v>75</v>
       </c>
       <c r="D18" s="67" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
@@ -1935,7 +2103,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="62" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
@@ -1944,7 +2112,7 @@
         <v>2</v>
       </c>
       <c r="D20" s="63" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
@@ -1953,7 +2121,7 @@
         <v>3</v>
       </c>
       <c r="D21" s="63" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
@@ -1962,7 +2130,7 @@
         <v>4</v>
       </c>
       <c r="D22" s="65" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
@@ -1973,7 +2141,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="66" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
@@ -1982,7 +2150,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="63" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
@@ -1991,7 +2159,7 @@
         <v>3</v>
       </c>
       <c r="D25" s="63" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2000,16 +2168,387 @@
         <v>4</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>85</v>
-      </c>
+      <c r="B27" s="80" t="s">
+        <v>142</v>
+      </c>
+      <c r="C27" s="80"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B27:C27"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:F27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+    </row>
+    <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="78"/>
+      <c r="C2" s="76" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="77" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="74" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="72" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="70" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="74" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="72">
+        <v>87.5</v>
+      </c>
+      <c r="D4" s="70" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="74" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="72" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="70" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="74" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="72" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="70" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="74" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="72" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="70" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="75" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="73">
+        <v>59.1</v>
+      </c>
+      <c r="D8" s="71" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="34"/>
+      <c r="C13" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F13" s="67" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="30">
+        <v>1</v>
+      </c>
+      <c r="C14" s="37">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D14" s="79">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="F14" s="63" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="30">
+        <v>2</v>
+      </c>
+      <c r="C15" s="37">
+        <v>10.6</v>
+      </c>
+      <c r="D15" s="79">
+        <v>10.6</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="F15" s="63" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="30">
+        <v>3</v>
+      </c>
+      <c r="C16" s="37">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D16" s="79">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="F16" s="63" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="30">
+        <v>4</v>
+      </c>
+      <c r="C17" s="37">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D17" s="79">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="63" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="30">
+        <v>5</v>
+      </c>
+      <c r="C18" s="37">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D18" s="79">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="F18" s="63" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="30">
+        <v>6</v>
+      </c>
+      <c r="C19" s="37">
+        <v>10.6</v>
+      </c>
+      <c r="D19" s="79">
+        <v>10.6</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="F19" s="63" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="30">
+        <v>7</v>
+      </c>
+      <c r="C20" s="37">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D20" s="79">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F20" s="63" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="30">
+        <v>8</v>
+      </c>
+      <c r="C21" s="37">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D21" s="79">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="F21" s="63" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="30">
+        <v>9</v>
+      </c>
+      <c r="C22" s="37">
+        <v>10.6</v>
+      </c>
+      <c r="D22" s="79">
+        <v>106</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="F22" s="63" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="30">
+        <v>10</v>
+      </c>
+      <c r="C23" s="37">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D23" s="79">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="F23" s="63" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="30">
+        <v>11</v>
+      </c>
+      <c r="C24" s="37">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D24" s="79">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="F24" s="63" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="30">
+        <v>12</v>
+      </c>
+      <c r="C25" s="37">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D25" s="79">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="F25" s="63" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="30">
+        <v>13</v>
+      </c>
+      <c r="C26" s="37">
+        <v>10.6</v>
+      </c>
+      <c r="D26" s="79"/>
+      <c r="E26" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="F26" s="63"/>
+    </row>
+    <row r="27" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="31">
+        <v>14</v>
+      </c>
+      <c r="C27" s="38">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F27" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Praktikum/233 - Fourieroptik/Tabellen/Auswertungstab.xlsx
+++ b/Praktikum/233 - Fourieroptik/Tabellen/Auswertungstab.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Users\Thorben\Documents\GitHub\Universe\Praktikum\233 - Fourieroptik\Tabellen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thorben Frey\Heidelberg\PAP\PAP2.1\Praktikum\Praktikum\Praktikum\233 - Fourieroptik\Tabellen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12795" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12795"/>
   </bookViews>
   <sheets>
     <sheet name="ES_quant" sheetId="1" r:id="rId1"/>
     <sheet name="DS_bb" sheetId="2" r:id="rId2"/>
     <sheet name="OB_fs" sheetId="3" r:id="rId3"/>
-    <sheet name="DS_fb" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,16 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="144">
-  <si>
-    <t>Umrechnungsfaktor u</t>
-  </si>
-  <si>
-    <t>Syst. Fehler u</t>
-  </si>
-  <si>
-    <t>Stat.  Fehler u</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="165">
   <si>
     <t>Fehler [pxl]</t>
   </si>
@@ -48,9 +38,6 @@
   </si>
   <si>
     <t>Syst. Fehl. mean</t>
-  </si>
-  <si>
-    <t>Steigung vor</t>
   </si>
   <si>
     <t>Syst. Fehler</t>
@@ -382,9 +369,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>Vergleich Double slit 15 maxima</t>
-  </si>
-  <si>
     <t>max_theo</t>
   </si>
   <si>
@@ -488,12 +472,90 @@
   </si>
   <si>
     <t>Verhältnis der Intensitäten</t>
+  </si>
+  <si>
+    <t>Vergleich Double slit 15 maxima_pos</t>
+  </si>
+  <si>
+    <t>theo</t>
+  </si>
+  <si>
+    <t>exp</t>
+  </si>
+  <si>
+    <t>2. Max</t>
+  </si>
+  <si>
+    <t>2. Min</t>
+  </si>
+  <si>
+    <t>3. Max</t>
+  </si>
+  <si>
+    <t>3. Min</t>
+  </si>
+  <si>
+    <t>0,917±0,004</t>
+  </si>
+  <si>
+    <t>0,922±0,007</t>
+  </si>
+  <si>
+    <t>0,951±0,007</t>
+  </si>
+  <si>
+    <t>0,710±0,003</t>
+  </si>
+  <si>
+    <t>0,765±0,003</t>
+  </si>
+  <si>
+    <t>0,862±0,004</t>
+  </si>
+  <si>
+    <t>0,852±0,008</t>
+  </si>
+  <si>
+    <t>0,891±0,007</t>
+  </si>
+  <si>
+    <t>0,916±0,003</t>
+  </si>
+  <si>
+    <t>0,866±0,004</t>
+  </si>
+  <si>
+    <t>0,880±0,005</t>
+  </si>
+  <si>
+    <t>0,736±0,007</t>
+  </si>
+  <si>
+    <t>0,709±0,010</t>
+  </si>
+  <si>
+    <t>0,754±0,007</t>
+  </si>
+  <si>
+    <t>0,736±0,003</t>
+  </si>
+  <si>
+    <t>Umrechnungsfaktor u [mm/pxl]</t>
+  </si>
+  <si>
+    <t>Syst. Fehler u [mm/pxl]</t>
+  </si>
+  <si>
+    <t>Stat.  Fehler u[mm/pxl]</t>
+  </si>
+  <si>
+    <t>Spaltbreite</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.E+00"/>
@@ -534,7 +596,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -974,11 +1036,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1108,6 +1205,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1424,8 +1532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1433,7 +1541,7 @@
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" customWidth="1"/>
     <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
@@ -1445,20 +1553,20 @@
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="10" t="s">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>1</v>
+        <v>162</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>2</v>
+        <v>163</v>
       </c>
       <c r="G2" s="39"/>
       <c r="H2" s="43" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="I2" s="46" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="J2" s="29"/>
     </row>
@@ -1474,24 +1582,24 @@
       </c>
       <c r="G3" s="44"/>
       <c r="H3" s="45" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I3" s="20" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="J3" s="33" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G4" s="30" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H4" s="37">
         <v>1</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="J4" s="48">
         <v>4.7199999999999999E-2</v>
@@ -1499,10 +1607,10 @@
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D5" s="12"/>
       <c r="G5" s="25"/>
@@ -1510,7 +1618,7 @@
         <v>2</v>
       </c>
       <c r="I5" s="21" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J5" s="49">
         <v>1.6500000000000001E-2</v>
@@ -1529,7 +1637,7 @@
         <v>3</v>
       </c>
       <c r="I6" s="21" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J6" s="49">
         <v>8.3000000000000001E-3</v>
@@ -1537,10 +1645,10 @@
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D7" s="12"/>
       <c r="G7" s="25"/>
@@ -1548,7 +1656,7 @@
         <v>4</v>
       </c>
       <c r="I7" s="21" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J7" s="49">
         <v>5.0000000000000001E-3</v>
@@ -1567,7 +1675,7 @@
         <v>5</v>
       </c>
       <c r="I8" s="47" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J8" s="49">
         <v>3.3999999999999998E-3</v>
@@ -1575,22 +1683,22 @@
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H9" s="37">
         <v>1</v>
       </c>
       <c r="I9" s="21" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="J9" s="50">
         <v>4.7199999999999999E-2</v>
@@ -1611,7 +1719,7 @@
         <v>2</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J10" s="49">
         <v>1.6500000000000001E-2</v>
@@ -1623,7 +1731,7 @@
         <v>3</v>
       </c>
       <c r="I11" s="21" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J11" s="49">
         <v>8.3000000000000001E-3</v>
@@ -1631,20 +1739,20 @@
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>7</v>
+        <v>164</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G12" s="25"/>
       <c r="H12" s="37">
         <v>4</v>
       </c>
       <c r="I12" s="21" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J12" s="49">
         <v>5.0000000000000001E-3</v>
@@ -1665,7 +1773,7 @@
         <v>5</v>
       </c>
       <c r="I13" s="22" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J13" s="51">
         <v>3.3999999999999998E-3</v>
@@ -1674,24 +1782,24 @@
     <row r="14" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F15" s="36"/>
       <c r="G15" s="34"/>
       <c r="H15" s="52" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="I15" s="53" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
@@ -1699,23 +1807,23 @@
         <v>1</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F16" s="35"/>
       <c r="G16" s="55" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H16" s="37">
         <v>1</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
@@ -1723,13 +1831,13 @@
         <v>2</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F17" s="35"/>
       <c r="G17" s="25"/>
@@ -1737,7 +1845,7 @@
         <v>2</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
@@ -1745,13 +1853,13 @@
         <v>3</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F18" s="35"/>
       <c r="G18" s="25"/>
@@ -1759,7 +1867,7 @@
         <v>3</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -1767,13 +1875,13 @@
         <v>4</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F19" s="35"/>
       <c r="G19" s="25"/>
@@ -1781,7 +1889,7 @@
         <v>4</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1789,13 +1897,13 @@
         <v>5</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F20" s="35"/>
       <c r="G20" s="40"/>
@@ -1803,26 +1911,26 @@
         <v>5</v>
       </c>
       <c r="I20" s="42" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G21" s="56" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H21" s="54">
         <v>1</v>
       </c>
       <c r="I21" s="57" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="4" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D22" s="24"/>
       <c r="G22" s="25"/>
@@ -1830,7 +1938,7 @@
         <v>2</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
@@ -1838,7 +1946,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D23" s="23"/>
       <c r="G23" s="25"/>
@@ -1846,7 +1954,7 @@
         <v>3</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
@@ -1854,7 +1962,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D24" s="23"/>
       <c r="G24" s="25"/>
@@ -1862,7 +1970,7 @@
         <v>4</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1870,7 +1978,7 @@
         <v>3</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D25" s="23"/>
       <c r="G25" s="27"/>
@@ -1878,7 +1986,7 @@
         <v>5</v>
       </c>
       <c r="I25" s="18" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1886,7 +1994,7 @@
         <v>4</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D26" s="23"/>
     </row>
@@ -1894,23 +2002,23 @@
     <row r="28" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="34"/>
       <c r="C28" s="32" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="30" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="31" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1923,7 +2031,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
@@ -1938,79 +2046,79 @@
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="58" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C2" s="59" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="30" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C3" s="60" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F3" s="33"/>
       <c r="G3" s="33" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="31" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C4" s="61" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F5" s="25"/>
       <c r="G5" s="25" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F6" s="30" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="33" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D7" s="67" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F7" s="27"/>
       <c r="G7" s="68" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="58" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C8" s="64">
         <v>1</v>
       </c>
       <c r="D8" s="62" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
@@ -2019,7 +2127,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="63" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
@@ -2028,7 +2136,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="63" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
@@ -2037,18 +2145,18 @@
         <v>4</v>
       </c>
       <c r="D11" s="65" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="56" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C12" s="54">
         <v>1</v>
       </c>
       <c r="D12" s="66" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
@@ -2057,7 +2165,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="63" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
@@ -2066,7 +2174,7 @@
         <v>3</v>
       </c>
       <c r="D14" s="63" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2075,35 +2183,35 @@
         <v>4</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="33" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C18" s="43" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D18" s="67" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="58" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C19" s="64">
         <v>1</v>
       </c>
       <c r="D19" s="62" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
@@ -2112,7 +2220,7 @@
         <v>2</v>
       </c>
       <c r="D20" s="63" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
@@ -2121,7 +2229,7 @@
         <v>3</v>
       </c>
       <c r="D21" s="63" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
@@ -2130,18 +2238,18 @@
         <v>4</v>
       </c>
       <c r="D22" s="65" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="56" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C23" s="54">
         <v>1</v>
       </c>
       <c r="D23" s="66" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
@@ -2150,7 +2258,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="63" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
@@ -2159,7 +2267,7 @@
         <v>3</v>
       </c>
       <c r="D25" s="63" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2168,12 +2276,12 @@
         <v>4</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="80" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C27" s="80"/>
     </row>
@@ -2188,119 +2296,250 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F27"/>
+  <dimension ref="B1:K27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="69" t="s">
-        <v>94</v>
-      </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-    </row>
-    <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="81" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="69"/>
+    </row>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="78"/>
       <c r="C2" s="76" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D2" s="77" t="s">
+        <v>99</v>
+      </c>
+      <c r="J2" s="81" t="s">
+        <v>70</v>
+      </c>
+      <c r="K2" s="81"/>
+    </row>
+    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="74" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="72" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="74" t="s">
-        <v>95</v>
-      </c>
-      <c r="C3" s="72" t="s">
-        <v>107</v>
-      </c>
       <c r="D3" s="70" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="H3" s="34"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="K3" s="67" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="74" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C4" s="72">
         <v>87.5</v>
       </c>
       <c r="D4" s="70" t="s">
+        <v>97</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="I4" s="37">
+        <v>1</v>
+      </c>
+      <c r="J4" s="79">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="K4" s="63" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="74" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="72" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="70" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="74" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" s="72" t="s">
-        <v>104</v>
-      </c>
-      <c r="D5" s="70" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H5" s="30"/>
+      <c r="I5" s="37">
+        <v>2</v>
+      </c>
+      <c r="J5" s="79">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="K5" s="63" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="74" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C6" s="72" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D6" s="70" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="H6" s="30"/>
+      <c r="I6" s="37">
+        <v>3</v>
+      </c>
+      <c r="J6" s="79">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="K6" s="63" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="74" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C7" s="72" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D7" s="70" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+      <c r="H7" s="87"/>
+      <c r="I7" s="41">
+        <v>4</v>
+      </c>
+      <c r="J7" s="85">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="K7" s="65" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="75" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C8" s="73">
         <v>59.1</v>
       </c>
       <c r="D8" s="71" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+      <c r="H8" s="56" t="s">
+        <v>143</v>
+      </c>
+      <c r="I8" s="54">
+        <v>1</v>
+      </c>
+      <c r="J8" s="86">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="K8" s="66" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H9" s="87"/>
+      <c r="I9" s="41">
+        <v>2</v>
+      </c>
+      <c r="J9" s="85">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="K9" s="65" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H10" s="56" t="s">
+        <v>144</v>
+      </c>
+      <c r="I10" s="54">
+        <v>1</v>
+      </c>
+      <c r="J10" s="86">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="K10" s="66" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H11" s="30"/>
+      <c r="I11" s="37">
+        <v>2</v>
+      </c>
+      <c r="J11" s="79">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="K11" s="63" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="82" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="82"/>
+      <c r="D12" s="82"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="37">
+        <v>3</v>
+      </c>
+      <c r="J12" s="79">
+        <v>0.879</v>
+      </c>
+      <c r="K12" s="63" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="34"/>
       <c r="C13" s="43" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F13" s="67" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="G13" s="84"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="37">
+        <v>4</v>
+      </c>
+      <c r="J13" s="79">
+        <v>0.879</v>
+      </c>
+      <c r="K13" s="63" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="30">
         <v>1</v>
       </c>
@@ -2311,13 +2550,24 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F14" s="63" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+      <c r="G14" s="83"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="37">
+        <v>5</v>
+      </c>
+      <c r="J14" s="79">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="K14" s="63" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="30">
         <v>2</v>
       </c>
@@ -2328,13 +2578,24 @@
         <v>10.6</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F15" s="63" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+      <c r="G15" s="83"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="41">
+        <v>6</v>
+      </c>
+      <c r="J15" s="85">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="K15" s="65" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="30">
         <v>3</v>
       </c>
@@ -2345,13 +2606,26 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F16" s="63" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="G16" s="83"/>
+      <c r="H16" s="56" t="s">
+        <v>145</v>
+      </c>
+      <c r="I16" s="54">
+        <v>1</v>
+      </c>
+      <c r="J16" s="86">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="K16" s="66" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="30">
         <v>4</v>
       </c>
@@ -2362,13 +2636,24 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F17" s="63" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="G17" s="83"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="37">
+        <v>2</v>
+      </c>
+      <c r="J17" s="79">
+        <v>0.62</v>
+      </c>
+      <c r="K17" s="63" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="30">
         <v>5</v>
       </c>
@@ -2379,13 +2664,24 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F18" s="63" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+      <c r="G18" s="83"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="37">
+        <v>3</v>
+      </c>
+      <c r="J18" s="79">
+        <v>0.62</v>
+      </c>
+      <c r="K18" s="63" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="30">
         <v>6</v>
       </c>
@@ -2396,13 +2692,24 @@
         <v>10.6</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F19" s="63" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="G19" s="83"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="38">
+        <v>4</v>
+      </c>
+      <c r="J19" s="8">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="30">
         <v>7</v>
       </c>
@@ -2413,13 +2720,14 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F20" s="63" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+      <c r="G20" s="83"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="30">
         <v>8</v>
       </c>
@@ -2430,13 +2738,14 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F21" s="63" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="G21" s="83"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="30">
         <v>9</v>
       </c>
@@ -2447,13 +2756,14 @@
         <v>106</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F22" s="63" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+      <c r="G22" s="83"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="30">
         <v>10</v>
       </c>
@@ -2464,13 +2774,14 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F23" s="63" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+      <c r="G23" s="83"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="30">
         <v>11</v>
       </c>
@@ -2481,13 +2792,14 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F24" s="63" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+      <c r="G24" s="83"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="30">
         <v>12</v>
       </c>
@@ -2498,13 +2810,14 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F25" s="63" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+      <c r="G25" s="83"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="30">
         <v>13</v>
       </c>
@@ -2513,11 +2826,12 @@
       </c>
       <c r="D26" s="79"/>
       <c r="E26" s="13" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F26" s="63"/>
-    </row>
-    <row r="27" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G26" s="83"/>
+    </row>
+    <row r="27" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="31">
         <v>14</v>
       </c>
@@ -2526,29 +2840,18 @@
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="17" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F27" s="9"/>
+      <c r="G27" s="83"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Praktikum/233 - Fourieroptik/Tabellen/Auswertungstab.xlsx
+++ b/Praktikum/233 - Fourieroptik/Tabellen/Auswertungstab.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="167">
   <si>
     <t>Fehler [pxl]</t>
   </si>
@@ -550,6 +550,12 @@
   </si>
   <si>
     <t>Spaltbreite</t>
+  </si>
+  <si>
+    <t>Beugungsordnung theo</t>
+  </si>
+  <si>
+    <t>Beugungsordnung exp</t>
   </si>
 </sst>
 </file>
@@ -1075,7 +1081,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1202,6 +1208,11 @@
     <xf numFmtId="2" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1211,11 +1222,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1530,10 +1539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J30"/>
+  <dimension ref="B1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1542,16 +1551,17 @@
     <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+    <col min="8" max="8" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="10" t="s">
         <v>161</v>
       </c>
@@ -1561,16 +1571,17 @@
       <c r="D2" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="43" t="s">
+      <c r="E2" s="81"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="46" t="s">
+      <c r="J2" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="29"/>
-    </row>
-    <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K2" s="29"/>
+    </row>
+    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1">
         <v>2.6449149999999999E-3</v>
       </c>
@@ -1580,32 +1591,34 @@
       <c r="D3" s="3">
         <v>6.0000000000000002E-5</v>
       </c>
-      <c r="G3" s="44"/>
-      <c r="H3" s="45" t="s">
+      <c r="E3" s="89"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="J3" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="33" t="s">
+      <c r="K3" s="33" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G4" s="30" t="s">
+    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E4" s="90"/>
+      <c r="H4" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="37">
+      <c r="I4" s="37">
         <v>1</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="J4" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="48">
+      <c r="K4" s="48">
         <v>4.7199999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
         <v>25</v>
       </c>
@@ -1613,18 +1626,19 @@
         <v>1</v>
       </c>
       <c r="D5" s="12"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="37">
+      <c r="E5" s="81"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="37">
         <v>2</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="J5" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="49">
+      <c r="K5" s="49">
         <v>1.6500000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="7">
         <v>163.9</v>
       </c>
@@ -1632,18 +1646,19 @@
         <v>2.6</v>
       </c>
       <c r="D6" s="9"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="37">
+      <c r="E6" s="81"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="37">
         <v>3</v>
       </c>
-      <c r="I6" s="21" t="s">
+      <c r="J6" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="49">
+      <c r="K6" s="49">
         <v>8.3000000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>26</v>
       </c>
@@ -1651,18 +1666,19 @@
         <v>0</v>
       </c>
       <c r="D7" s="12"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="37">
+      <c r="E7" s="81"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="37">
         <v>4</v>
       </c>
-      <c r="I7" s="21" t="s">
+      <c r="J7" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="J7" s="49">
+      <c r="K7" s="49">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="7">
         <v>10</v>
       </c>
@@ -1670,18 +1686,19 @@
         <v>9</v>
       </c>
       <c r="D8" s="9"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="41">
+      <c r="E8" s="81"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="41">
         <v>5</v>
       </c>
-      <c r="I8" s="47" t="s">
+      <c r="J8" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="J8" s="49">
+      <c r="K8" s="49">
         <v>3.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>27</v>
       </c>
@@ -1691,20 +1708,21 @@
       <c r="D9" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="30" t="s">
+      <c r="E9" s="81"/>
+      <c r="H9" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="H9" s="37">
+      <c r="I9" s="37">
         <v>1</v>
       </c>
-      <c r="I9" s="21" t="s">
+      <c r="J9" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="J9" s="50">
+      <c r="K9" s="50">
         <v>4.7199999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="7">
         <v>0.433</v>
       </c>
@@ -1714,30 +1732,32 @@
       <c r="D10" s="9">
         <v>1.2E-2</v>
       </c>
-      <c r="G10" s="25"/>
-      <c r="H10" s="37">
+      <c r="E10" s="81"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="37">
         <v>2</v>
       </c>
-      <c r="I10" s="21" t="s">
+      <c r="J10" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="J10" s="49">
+      <c r="K10" s="49">
         <v>1.6500000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G11" s="25"/>
-      <c r="H11" s="37">
+    <row r="11" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="90"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="37">
         <v>3</v>
       </c>
-      <c r="I11" s="21" t="s">
+      <c r="J11" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="J11" s="49">
+      <c r="K11" s="49">
         <v>8.3000000000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
         <v>164</v>
       </c>
@@ -1747,18 +1767,19 @@
       <c r="D12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="25"/>
-      <c r="H12" s="37">
+      <c r="E12" s="81"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="37">
         <v>4</v>
       </c>
-      <c r="I12" s="21" t="s">
+      <c r="J12" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="J12" s="49">
+      <c r="K12" s="49">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="7">
         <v>2.34E-4</v>
       </c>
@@ -1768,19 +1789,20 @@
       <c r="D13" s="3">
         <v>6.0000000000000002E-6</v>
       </c>
-      <c r="G13" s="27"/>
-      <c r="H13" s="38">
+      <c r="E13" s="88"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="38">
         <v>5</v>
       </c>
-      <c r="I13" s="22" t="s">
+      <c r="J13" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="J13" s="51">
+      <c r="K13" s="51">
         <v>3.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
         <v>6</v>
       </c>
@@ -1788,21 +1810,24 @@
         <v>13</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="F15" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="36"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="52" t="s">
+      <c r="G15" s="36"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="52" t="s">
         <v>135</v>
       </c>
-      <c r="I15" s="53" t="s">
+      <c r="J15" s="53" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="6">
         <v>1</v>
       </c>
@@ -1812,21 +1837,24 @@
       <c r="D16" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="21">
+        <v>1.43</v>
+      </c>
+      <c r="F16" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="35"/>
-      <c r="G16" s="55" t="s">
+      <c r="G16" s="35"/>
+      <c r="H16" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="H16" s="37">
+      <c r="I16" s="37">
         <v>1</v>
       </c>
-      <c r="I16" s="14" t="s">
+      <c r="J16" s="14" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="6">
         <v>2</v>
       </c>
@@ -1836,19 +1864,22 @@
       <c r="D17" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="21">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="F17" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="35"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="37">
+      <c r="G17" s="35"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="37">
         <v>2</v>
       </c>
-      <c r="I17" s="14" t="s">
+      <c r="J17" s="14" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="6">
         <v>3</v>
       </c>
@@ -1858,19 +1889,22 @@
       <c r="D18" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="21">
+        <v>3.47</v>
+      </c>
+      <c r="F18" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="35"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="37">
+      <c r="G18" s="35"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="37">
         <v>3</v>
       </c>
-      <c r="I18" s="14" t="s">
+      <c r="J18" s="14" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="6">
         <v>4</v>
       </c>
@@ -1880,19 +1914,22 @@
       <c r="D19" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="21">
+        <v>4.49</v>
+      </c>
+      <c r="F19" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="35"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="37">
+      <c r="G19" s="35"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="37">
         <v>4</v>
       </c>
-      <c r="I19" s="14" t="s">
+      <c r="J19" s="14" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="7">
         <v>5</v>
       </c>
@@ -1902,30 +1939,33 @@
       <c r="D20" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="22">
+        <v>5.59</v>
+      </c>
+      <c r="F20" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="35"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="41">
+      <c r="G20" s="35"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="41">
         <v>5</v>
       </c>
-      <c r="I20" s="42" t="s">
+      <c r="J20" s="42" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G21" s="56" t="s">
+    <row r="21" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H21" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="H21" s="54">
+      <c r="I21" s="54">
         <v>1</v>
       </c>
-      <c r="I21" s="57" t="s">
+      <c r="J21" s="57" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="4" t="s">
         <v>134</v>
       </c>
@@ -1933,15 +1973,16 @@
         <v>12</v>
       </c>
       <c r="D22" s="24"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="37">
+      <c r="E22" s="36"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="37">
         <v>2</v>
       </c>
-      <c r="I22" s="14" t="s">
+      <c r="J22" s="14" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="6">
         <v>1</v>
       </c>
@@ -1949,15 +1990,16 @@
         <v>28</v>
       </c>
       <c r="D23" s="23"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="37">
+      <c r="E23" s="35"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="37">
         <v>3</v>
       </c>
-      <c r="I23" s="14" t="s">
+      <c r="J23" s="14" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="6">
         <v>2</v>
       </c>
@@ -1965,15 +2007,16 @@
         <v>29</v>
       </c>
       <c r="D24" s="23"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="37">
+      <c r="E24" s="35"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="37">
         <v>4</v>
       </c>
-      <c r="I24" s="14" t="s">
+      <c r="J24" s="14" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="6">
         <v>3</v>
       </c>
@@ -1981,15 +2024,16 @@
         <v>30</v>
       </c>
       <c r="D25" s="23"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="38">
+      <c r="E25" s="35"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="38">
         <v>5</v>
       </c>
-      <c r="I25" s="18" t="s">
+      <c r="J25" s="18" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="7">
         <v>4</v>
       </c>
@@ -1997,15 +2041,16 @@
         <v>31</v>
       </c>
       <c r="D26" s="23"/>
-    </row>
-    <row r="27" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E26" s="35"/>
+    </row>
+    <row r="27" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="34"/>
       <c r="C28" s="32" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="30" t="s">
         <v>33</v>
       </c>
@@ -2013,7 +2058,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="31" t="s">
         <v>34</v>
       </c>
@@ -2280,10 +2325,10 @@
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="80" t="s">
+      <c r="B27" s="85" t="s">
         <v>137</v>
       </c>
-      <c r="C27" s="80"/>
+      <c r="C27" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2308,13 +2353,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="86" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
       <c r="G1" s="69"/>
     </row>
     <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2325,10 +2370,10 @@
       <c r="D2" s="77" t="s">
         <v>99</v>
       </c>
-      <c r="J2" s="81" t="s">
+      <c r="J2" s="86" t="s">
         <v>70</v>
       </c>
-      <c r="K2" s="81"/>
+      <c r="K2" s="86"/>
     </row>
     <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="74" t="s">
@@ -2424,11 +2469,11 @@
       <c r="D7" s="70" t="s">
         <v>103</v>
       </c>
-      <c r="H7" s="87"/>
+      <c r="H7" s="84"/>
       <c r="I7" s="41">
         <v>4</v>
       </c>
-      <c r="J7" s="85">
+      <c r="J7" s="82">
         <v>0.91400000000000003</v>
       </c>
       <c r="K7" s="65" t="s">
@@ -2451,7 +2496,7 @@
       <c r="I8" s="54">
         <v>1</v>
       </c>
-      <c r="J8" s="86">
+      <c r="J8" s="83">
         <v>0.57899999999999996</v>
       </c>
       <c r="K8" s="66" t="s">
@@ -2459,11 +2504,11 @@
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="H9" s="87"/>
+      <c r="H9" s="84"/>
       <c r="I9" s="41">
         <v>2</v>
       </c>
-      <c r="J9" s="85">
+      <c r="J9" s="82">
         <v>0.57899999999999996</v>
       </c>
       <c r="K9" s="65" t="s">
@@ -2477,7 +2522,7 @@
       <c r="I10" s="54">
         <v>1</v>
       </c>
-      <c r="J10" s="86">
+      <c r="J10" s="83">
         <v>0.88100000000000001</v>
       </c>
       <c r="K10" s="66" t="s">
@@ -2497,11 +2542,11 @@
       </c>
     </row>
     <row r="12" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="82" t="s">
+      <c r="B12" s="87" t="s">
         <v>139</v>
       </c>
-      <c r="C12" s="82"/>
-      <c r="D12" s="82"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="87"/>
       <c r="H12" s="30"/>
       <c r="I12" s="37">
         <v>3</v>
@@ -2527,7 +2572,7 @@
       <c r="F13" s="67" t="s">
         <v>121</v>
       </c>
-      <c r="G13" s="84"/>
+      <c r="G13" s="81"/>
       <c r="H13" s="30"/>
       <c r="I13" s="37">
         <v>4</v>
@@ -2555,7 +2600,7 @@
       <c r="F14" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="G14" s="83"/>
+      <c r="G14" s="80"/>
       <c r="H14" s="30"/>
       <c r="I14" s="37">
         <v>5</v>
@@ -2583,12 +2628,12 @@
       <c r="F15" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="G15" s="83"/>
-      <c r="H15" s="87"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="84"/>
       <c r="I15" s="41">
         <v>6</v>
       </c>
-      <c r="J15" s="85">
+      <c r="J15" s="82">
         <v>0.81100000000000005</v>
       </c>
       <c r="K15" s="65" t="s">
@@ -2611,14 +2656,14 @@
       <c r="F16" s="63" t="s">
         <v>124</v>
       </c>
-      <c r="G16" s="83"/>
+      <c r="G16" s="80"/>
       <c r="H16" s="56" t="s">
         <v>145</v>
       </c>
       <c r="I16" s="54">
         <v>1</v>
       </c>
-      <c r="J16" s="86">
+      <c r="J16" s="83">
         <v>0.61899999999999999</v>
       </c>
       <c r="K16" s="66" t="s">
@@ -2641,7 +2686,7 @@
       <c r="F17" s="63" t="s">
         <v>125</v>
       </c>
-      <c r="G17" s="83"/>
+      <c r="G17" s="80"/>
       <c r="H17" s="30"/>
       <c r="I17" s="37">
         <v>2</v>
@@ -2669,7 +2714,7 @@
       <c r="F18" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="G18" s="83"/>
+      <c r="G18" s="80"/>
       <c r="H18" s="30"/>
       <c r="I18" s="37">
         <v>3</v>
@@ -2697,7 +2742,7 @@
       <c r="F19" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="G19" s="83"/>
+      <c r="G19" s="80"/>
       <c r="H19" s="31"/>
       <c r="I19" s="38">
         <v>4</v>
@@ -2725,7 +2770,7 @@
       <c r="F20" s="63" t="s">
         <v>128</v>
       </c>
-      <c r="G20" s="83"/>
+      <c r="G20" s="80"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="30">
@@ -2743,7 +2788,7 @@
       <c r="F21" s="63" t="s">
         <v>129</v>
       </c>
-      <c r="G21" s="83"/>
+      <c r="G21" s="80"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="30">
@@ -2761,7 +2806,7 @@
       <c r="F22" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="G22" s="83"/>
+      <c r="G22" s="80"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="30">
@@ -2779,7 +2824,7 @@
       <c r="F23" s="63" t="s">
         <v>131</v>
       </c>
-      <c r="G23" s="83"/>
+      <c r="G23" s="80"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="30">
@@ -2797,7 +2842,7 @@
       <c r="F24" s="63" t="s">
         <v>132</v>
       </c>
-      <c r="G24" s="83"/>
+      <c r="G24" s="80"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="30">
@@ -2815,7 +2860,7 @@
       <c r="F25" s="63" t="s">
         <v>133</v>
       </c>
-      <c r="G25" s="83"/>
+      <c r="G25" s="80"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="30">
@@ -2829,7 +2874,7 @@
         <v>119</v>
       </c>
       <c r="F26" s="63"/>
-      <c r="G26" s="83"/>
+      <c r="G26" s="80"/>
     </row>
     <row r="27" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="31">
@@ -2843,7 +2888,7 @@
         <v>120</v>
       </c>
       <c r="F27" s="9"/>
-      <c r="G27" s="83"/>
+      <c r="G27" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="3">
